--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -748,22 +748,62 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>09/08/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Farul Constanta</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="M6" t="n">
+        <v>16</v>
+      </c>
+      <c r="N6" t="n">
+        <v>24</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -806,22 +806,62 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Din. Bucuresti</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M7" t="n">
+        <v>12</v>
+      </c>
+      <c r="N7" t="n">
+        <v>17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>7</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -864,22 +864,62 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M8" t="n">
+        <v>15</v>
+      </c>
+      <c r="N8" t="n">
+        <v>16</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -922,22 +922,62 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FC Rapid Bucuresti</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -980,22 +980,62 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13/09/2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>FC Arges</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M10" t="n">
+        <v>16</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -1038,22 +1038,62 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M11" t="n">
+        <v>13</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -1096,22 +1096,62 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Csikszereda M. Ciuc</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M12" t="n">
+        <v>19</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -1154,22 +1154,62 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>06/10/2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Botosani</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M13" t="n">
+        <v>12</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -1212,22 +1212,62 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Otelul</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M14" t="n">
+        <v>12</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -1270,22 +1270,62 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>26/10/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="M15" t="n">
+        <v>11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>26</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -1328,22 +1328,62 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>02/11/2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Metaloglobus Bucharest</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="M16" t="n">
+        <v>14</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -1386,22 +1386,62 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Univ. Craiova</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>23</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -1444,22 +1444,62 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>U. Cluj</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M18" t="n">
+        <v>15</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16</v>
+      </c>
+      <c r="O18" t="n">
+        <v>6</v>
+      </c>
+      <c r="P18" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -1502,22 +1502,62 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>30/11/2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FC Hermannstadt</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M19" t="n">
+        <v>16</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -1560,22 +1560,62 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Petrolul</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M20" t="n">
+        <v>16</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -1618,22 +1618,62 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Farul Constanta</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M21" t="n">
+        <v>14</v>
+      </c>
+      <c r="N21" t="n">
+        <v>18</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -1676,22 +1676,62 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Din. Bucuresti</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M22" t="n">
+        <v>16</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7</v>
+      </c>
+      <c r="O22" t="n">
+        <v>7</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -1734,40 +1734,120 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M23" t="n">
+        <v>9</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>26/01/2026</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>FC Rapid Bucuresti</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M24" t="n">
+        <v>14</v>
+      </c>
+      <c r="N24" t="n">
+        <v>20</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -1850,22 +1850,62 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FC Arges</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M25" t="n">
+        <v>14</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O25" t="n">
+        <v>4</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -1908,22 +1908,62 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M26" t="n">
+        <v>7</v>
+      </c>
+      <c r="N26" t="n">
+        <v>12</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -1966,22 +1966,62 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>07/02/2026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Csikszereda M. Ciuc</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M27" t="n">
+        <v>22</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>

--- a/new-stats/fc-uta-arad.xlsx
+++ b/new-stats/fc-uta-arad.xlsx
@@ -2024,22 +2024,62 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>15/02/2026</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Botosani</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>18</v>
+      </c>
+      <c r="N28" t="n">
+        <v>19</v>
+      </c>
+      <c r="O28" t="n">
+        <v>7</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
